--- a/data/trans_camb/P6905-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6905-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,85; 3,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,51; 8,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; -2,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 24,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 48,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 61,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 7,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 12,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 31,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,3; 16,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,81; 42,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,18; 7,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,37; 211,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 369,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,84; 701,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,99; 33,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,42; 61,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,73; 167,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 4,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,71; -0,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,68; 7,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 8,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,94; -7,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 5,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 4,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,44; -3,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,88%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,74; 27,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,81; 17,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,28; 0,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,45; 17,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,79; 20,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,5; -17,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 18,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,13; 14,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,3; -10,6</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,54; 7,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,53; 15,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 19,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; 26,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,74; 13,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,69; 17,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 12,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 10,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 12,94</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,19; 29,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,62; 55,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,67; 70,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,42; 87,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,38; 47,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,06; 61,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,02; 39,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 33,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; 41,79</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,95; 3,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; -1,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 9,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 11,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,04; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 3,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,88; 4,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; 0,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,49; 7,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; 12,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,91; -5,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 26,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 32,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,56; 6,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,91; 12,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,38; 13,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 1,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,74</t>
+          <t>-18,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,18</t>
+          <t>22,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -2,33</t>
+          <t>-30,05; 6,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 61,25</t>
+          <t>-2,36; 56,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 31,24</t>
+          <t>-13,64; 27,56</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-75,26%</t>
+          <t>-65,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>114,01%</t>
+          <t>102,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-1,5%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,18; 7,47</t>
+          <t>-98,0; 42,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 701,09</t>
+          <t>-18,02; 560,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 167,75</t>
+          <t>-49,18; 132,12</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,85</t>
+          <t>-20,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-10,87</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -0,1</t>
+          <t>-16,35; 0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -7,33</t>
+          <t>-34,95; -9,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -3,52</t>
+          <t>-18,14; -4,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,57%</t>
+          <t>-29,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,15%</t>
+          <t>-43,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-27,88%</t>
+          <t>-31,14%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 0,63</t>
+          <t>-49,93; 1,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -17,35</t>
+          <t>-65,02; -24,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,3; -10,6</t>
+          <t>-47,79; -14,51</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 19,33</t>
+          <t>-15,82; 19,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 17,91</t>
+          <t>-13,21; 18,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 12,94</t>
+          <t>-8,51; 13,3</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 70,19</t>
+          <t>-38,92; 70,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 61,1</t>
+          <t>-27,31; 61,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 41,79</t>
+          <t>-20,57; 42,55</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-5,79</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -1,47</t>
+          <t>-13,74; -0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 2,62</t>
+          <t>-19,65; 0,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,53</t>
+          <t>-11,47; -0,43</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-17,27%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -5,02</t>
+          <t>-42,83; -2,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 6,88</t>
+          <t>-44,09; 0,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 1,87</t>
+          <t>-32,7; -1,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 3,16</t>
+          <t>-23,12; 3,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 8,77</t>
+          <t>-19,7; 7,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 6,95</t>
+          <t>-30,69; 7,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 24,52</t>
+          <t>-12,84; 25,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 48,36</t>
+          <t>-3,34; 49,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 56,34</t>
+          <t>-1,43; 54,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 7,26</t>
+          <t>-16,01; 7,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 12,7</t>
+          <t>-11,73; 14,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 27,56</t>
+          <t>-14,98; 22,56</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 16,94</t>
+          <t>-71,68; 14,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 42,28</t>
+          <t>-63,52; 36,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,0; 42,82</t>
+          <t>-97,99; 32,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 211,29</t>
+          <t>-45,03; 213,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 369,21</t>
+          <t>-21,24; 391,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 560,43</t>
+          <t>-23,06; 509,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 33,08</t>
+          <t>-49,89; 34,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 61,64</t>
+          <t>-39,8; 70,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 132,12</t>
+          <t>-54,06; 100,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 7,13</t>
+          <t>-9,85; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 4,59</t>
+          <t>-11,67; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 0,5</t>
+          <t>-17,08; -1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 7,34</t>
+          <t>-18,36; 7,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 8,9</t>
+          <t>-15,38; 8,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,95; -9,91</t>
+          <t>-35,25; -10,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,77</t>
+          <t>-8,34; 5,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 4,45</t>
+          <t>-9,66; 4,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -4,28</t>
+          <t>-18,43; -4,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 27,31</t>
+          <t>-30,52; 28,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 17,4</t>
+          <t>-34,18; 16,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 1,66</t>
+          <t>-50,7; -4,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 17,46</t>
+          <t>-34,94; 19,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 20,71</t>
+          <t>-28,95; 20,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,02; -24,14</t>
+          <t>-65,96; -25,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 18,0</t>
+          <t>-22,35; 18,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 14,5</t>
+          <t>-24,9; 15,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,79; -14,51</t>
+          <t>-48,94; -14,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 7,54</t>
+          <t>-28,29; 5,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 15,02</t>
+          <t>-16,83; 15,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 19,41</t>
+          <t>-17,57; 18,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 26,19</t>
+          <t>-11,19; 28,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 13,46</t>
+          <t>-19,07; 14,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 18,18</t>
+          <t>-11,11; 18,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 12,24</t>
+          <t>-14,92; 12,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 10,49</t>
+          <t>-13,43; 10,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 13,3</t>
+          <t>-9,55; 13,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,19; 29,21</t>
+          <t>-64,28; 21,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 55,86</t>
+          <t>-41,81; 54,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 70,96</t>
+          <t>-41,62; 69,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 87,48</t>
+          <t>-25,23; 94,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 47,6</t>
+          <t>-41,74; 49,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 61,88</t>
+          <t>-23,75; 62,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 39,27</t>
+          <t>-35,6; 38,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 33,62</t>
+          <t>-31,73; 34,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 42,55</t>
+          <t>-21,84; 44,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,28</t>
+          <t>-10,41; 2,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 3,33</t>
+          <t>-9,52; 3,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -0,73</t>
+          <t>-14,33; -0,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>-8,84; 10,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>-8,64; 9,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 0,14</t>
+          <t>-19,92; -0,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 3,83</t>
+          <t>-6,63; 4,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 4,23</t>
+          <t>-6,51; 4,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,43</t>
+          <t>-11,92; -0,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 7,87</t>
+          <t>-31,63; 10,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 12,37</t>
+          <t>-29,13; 14,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,83; -2,91</t>
+          <t>-42,39; -0,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 26,44</t>
+          <t>-19,12; 27,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 32,49</t>
+          <t>-19,22; 27,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 0,1</t>
+          <t>-44,96; -2,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 12,23</t>
+          <t>-18,25; 13,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 13,84</t>
+          <t>-18,32; 14,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,7; -1,17</t>
+          <t>-33,25; -1,82</t>
         </is>
       </c>
     </row>
